--- a/exp2/case02/report/motivation/attention/MeasurementAnovaAnalysis.xlsx
+++ b/exp2/case02/report/motivation/attention/MeasurementAnovaAnalysis.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="135">
   <si>
     <t>Summary of ANOVA for Attention</t>
   </si>
@@ -133,7 +133,7 @@
     <t>current.size is = 12 and recommended.size must be = 15 for the group: 'non-gamified:Apprentice'. Size sample for parametric test isn't recomended</t>
   </si>
   <si>
-    <t>current.size is = 10 and recommended.size must be = 15 for the group: 'ont-gamified:Apprentice'. Size sample for parametric test isn't recomended</t>
+    <t>current.size is = 9 and recommended.size must be = 15 for the group: 'ont-gamified:Apprentice'. Size sample for parametric test isn't recomended</t>
   </si>
   <si>
     <t>current.size is = 5 and recommended.size must be = 15 for the group: 'non-gamified:Master'. Size sample for parametric test isn't recomended</t>
@@ -417,9 +417,6 @@
     <t>Student's t-Test for Attention in Type:CLRole between non-gamified.Apprentice:ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>medium</t>
-  </si>
-  <si>
     <t>Student's t-Test for Attention in Type:CLRole between non-gamified.Apprentice:ont-gamified.Master</t>
   </si>
   <si>
@@ -433,6 +430,9 @@
   </si>
   <si>
     <t>Student's t-Test for Attention in Type:CLRole between ont-gamified.Apprentice:ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>medium</t>
   </si>
 </sst>
 </file>
@@ -8823,19 +8823,19 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="D6" t="n" s="33">
-        <v>0.4414614286209673</v>
+        <v>0.41031183647009156</v>
       </c>
       <c r="E6" t="n" s="34">
-        <v>1.2164798944207116</v>
+        <v>0.7759295435636636</v>
       </c>
       <c r="F6" t="n" s="35">
-        <v>0.03828922941608025</v>
+        <v>0.025137967816170614</v>
       </c>
       <c r="G6" t="n" s="36">
-        <v>0.2791215466135196</v>
+        <v>0.3858877187223224</v>
       </c>
     </row>
     <row r="7">
@@ -8846,19 +8846,19 @@
         <v>1.0</v>
       </c>
       <c r="C7" t="n" s="32">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="D7" t="n" s="33">
-        <v>0.4414614286209673</v>
+        <v>0.41031183647009156</v>
       </c>
       <c r="E7" t="n" s="34">
-        <v>1.2946563406331775</v>
+        <v>2.0171817478670504</v>
       </c>
       <c r="F7" t="n" s="35">
-        <v>0.042372268283910434</v>
+        <v>0.06703625610271209</v>
       </c>
       <c r="G7" t="n" s="36">
-        <v>0.2645052190903353</v>
+        <v>0.1665675848609678</v>
       </c>
     </row>
     <row r="8">
@@ -8869,19 +8869,19 @@
         <v>1.0</v>
       </c>
       <c r="C8" t="n" s="32">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="D8" t="n" s="33">
-        <v>0.4414614286209673</v>
+        <v>0.41031183647009156</v>
       </c>
       <c r="E8" t="n" s="34">
-        <v>0.2596753736495069</v>
+        <v>0.07372524992755666</v>
       </c>
       <c r="F8" t="n" s="35">
-        <v>0.008498807176598129</v>
+        <v>0.002450084004877655</v>
       </c>
       <c r="G8" t="n" s="36">
-        <v>0.6141994745929336</v>
+        <v>0.787980039784302</v>
       </c>
     </row>
     <row r="9">
@@ -8919,16 +8919,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="n" s="55">
-        <v>0.07005955509462325</v>
+        <v>0.01015435497424555</v>
       </c>
       <c r="C13" t="n" s="56">
         <v>1.0</v>
       </c>
       <c r="D13" t="n" s="57">
-        <v>0.15869915365760054</v>
+        <v>0.024747896774326986</v>
       </c>
       <c r="E13" t="n" s="58">
-        <v>0.6932749190788622</v>
+        <v>0.8761258258071234</v>
       </c>
     </row>
     <row r="14">
@@ -8936,16 +8936,16 @@
         <v>9</v>
       </c>
       <c r="B14" t="n" s="55">
-        <v>0.5370289520796501</v>
+        <v>0.3183730759910066</v>
       </c>
       <c r="C14" t="n" s="56">
         <v>1.0</v>
       </c>
       <c r="D14" t="n" s="57">
-        <v>1.2164798944207116</v>
+        <v>0.7759295435636636</v>
       </c>
       <c r="E14" t="n" s="58">
-        <v>0.2791215466135196</v>
+        <v>0.3858877187223224</v>
       </c>
     </row>
     <row r="15">
@@ -8953,16 +8953,16 @@
         <v>10</v>
       </c>
       <c r="B15" t="n" s="55">
-        <v>0.5715408377091169</v>
+        <v>0.8276735474612789</v>
       </c>
       <c r="C15" t="n" s="56">
         <v>1.0</v>
       </c>
       <c r="D15" t="n" s="57">
-        <v>1.2946563406331775</v>
+        <v>2.0171817478670504</v>
       </c>
       <c r="E15" t="n" s="58">
-        <v>0.2645052190903353</v>
+        <v>0.1665675848609678</v>
       </c>
     </row>
     <row r="16">
@@ -8970,16 +8970,16 @@
         <v>11</v>
       </c>
       <c r="B16" t="n" s="55">
-        <v>0.1146366614289942</v>
+        <v>0.03025034269199267</v>
       </c>
       <c r="C16" t="n" s="56">
         <v>1.0</v>
       </c>
       <c r="D16" t="n" s="57">
-        <v>0.2596753736495069</v>
+        <v>0.07372524992755666</v>
       </c>
       <c r="E16" t="n" s="58">
-        <v>0.6141994745929336</v>
+        <v>0.787980039784302</v>
       </c>
     </row>
     <row r="17">
@@ -8987,10 +8987,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n" s="55">
-        <v>12.802381430008053</v>
+        <v>11.488731421162564</v>
       </c>
       <c r="C17" t="n" s="56">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="58"/>
@@ -9041,7 +9041,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1209">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2">
@@ -9143,7 +9143,7 @@
         <v>-0.18689996378038473</v>
       </c>
       <c r="M7" t="s" s="1262">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
@@ -9184,7 +9184,7 @@
         <v>-0.18689996378038473</v>
       </c>
       <c r="M8" t="s" s="1262">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9">
@@ -9271,7 +9271,7 @@
         <v>-0.18689996378038473</v>
       </c>
       <c r="M11" t="s" s="1293">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -9312,7 +9312,7 @@
         <v>-0.18689996378038473</v>
       </c>
       <c r="M12" t="s" s="1293">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -9399,7 +9399,7 @@
         <v>-0.18689996378038473</v>
       </c>
       <c r="M15" t="s" s="1324">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
@@ -9440,7 +9440,7 @@
         <v>-0.18689996378038473</v>
       </c>
       <c r="M16" t="s" s="1324">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
@@ -10183,7 +10183,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1365">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
@@ -10252,40 +10252,40 @@
         <v>72</v>
       </c>
       <c r="B7" t="n" s="1407">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C7" t="n" s="1408">
-        <v>0.10755108441075896</v>
+        <v>-0.013263282323476443</v>
       </c>
       <c r="D7" t="n" s="1409">
-        <v>-0.1547845308672261</v>
+        <v>-0.2755988976014615</v>
       </c>
       <c r="E7" t="n" s="1410">
-        <v>0.5038474385578107</v>
+        <v>0.3484089126346211</v>
       </c>
       <c r="F7" t="n" s="1411">
-        <v>0.15933054990844248</v>
+        <v>0.11613630421154036</v>
       </c>
       <c r="G7" t="n" s="1412">
-        <v>-0.211110015406126</v>
+        <v>-0.24553589074655718</v>
       </c>
       <c r="H7" t="n" s="1413">
-        <v>0.4262121842276439</v>
+        <v>0.21900932609960427</v>
       </c>
       <c r="I7" t="n" s="1414">
-        <v>12.890008338016326</v>
+        <v>10.001466146356538</v>
       </c>
       <c r="J7" t="n" s="1415">
-        <v>-0.6884745635570673</v>
+        <v>-1.4019164499507597</v>
       </c>
       <c r="K7" t="n" s="1416">
-        <v>0.25167860639805684</v>
+        <v>0.09560221715665079</v>
       </c>
       <c r="L7" t="n" s="1417">
-        <v>-0.3140719862638955</v>
+        <v>-0.7118938694614634</v>
       </c>
       <c r="M7" t="s" s="1418">
-        <v>93</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8">
@@ -10299,7 +10299,7 @@
         <v>0.26233561527798505</v>
       </c>
       <c r="D8" t="n" s="1409">
-        <v>0.1547845308672261</v>
+        <v>0.2755988976014615</v>
       </c>
       <c r="E8" t="n" s="1410">
         <v>0.3885272588041064</v>
@@ -10314,19 +10314,19 @@
         <v>0.5795667936887596</v>
       </c>
       <c r="I8" t="n" s="1414">
-        <v>12.890008338016326</v>
+        <v>10.001466146356538</v>
       </c>
       <c r="J8" t="n" s="1415">
-        <v>-0.6884745635570673</v>
+        <v>-1.4019164499507597</v>
       </c>
       <c r="K8" t="n" s="1416">
-        <v>0.25167860639805684</v>
+        <v>0.09560221715665079</v>
       </c>
       <c r="L8" t="n" s="1417">
-        <v>-0.3140719862638955</v>
+        <v>-0.7118938694614634</v>
       </c>
       <c r="M8" t="s" s="1418">
-        <v>93</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
@@ -10380,40 +10380,40 @@
         <v>72</v>
       </c>
       <c r="B11" t="n" s="1438">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C11" t="n" s="1439">
-        <v>0.10755108441075896</v>
+        <v>-0.013263282323476443</v>
       </c>
       <c r="D11" t="n" s="1440">
-        <v>-0.1547845308672261</v>
+        <v>-0.2755988976014615</v>
       </c>
       <c r="E11" t="n" s="1441">
-        <v>0.5038474385578107</v>
+        <v>0.3484089126346211</v>
       </c>
       <c r="F11" t="n" s="1442">
-        <v>0.15933054990844248</v>
+        <v>0.11613630421154036</v>
       </c>
       <c r="G11" t="n" s="1443">
-        <v>-0.211110015406126</v>
+        <v>-0.24553589074655718</v>
       </c>
       <c r="H11" t="n" s="1444">
-        <v>0.4262121842276439</v>
+        <v>0.21900932609960427</v>
       </c>
       <c r="I11" t="n" s="1445">
-        <v>12.890008338016326</v>
+        <v>10.001466146356538</v>
       </c>
       <c r="J11" t="n" s="1446">
-        <v>-0.6884745635570673</v>
+        <v>-1.4019164499507597</v>
       </c>
       <c r="K11" t="n" s="1447">
-        <v>0.7483213936019432</v>
+        <v>0.9043977828433492</v>
       </c>
       <c r="L11" t="n" s="1448">
-        <v>-0.3140719862638955</v>
+        <v>-0.7118938694614634</v>
       </c>
       <c r="M11" t="s" s="1449">
-        <v>93</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
@@ -10427,7 +10427,7 @@
         <v>0.26233561527798505</v>
       </c>
       <c r="D12" t="n" s="1440">
-        <v>0.1547845308672261</v>
+        <v>0.2755988976014615</v>
       </c>
       <c r="E12" t="n" s="1441">
         <v>0.3885272588041064</v>
@@ -10442,19 +10442,19 @@
         <v>0.5795667936887596</v>
       </c>
       <c r="I12" t="n" s="1445">
-        <v>12.890008338016326</v>
+        <v>10.001466146356538</v>
       </c>
       <c r="J12" t="n" s="1446">
-        <v>-0.6884745635570673</v>
+        <v>-1.4019164499507597</v>
       </c>
       <c r="K12" t="n" s="1447">
-        <v>0.7483213936019432</v>
+        <v>0.9043977828433492</v>
       </c>
       <c r="L12" t="n" s="1448">
-        <v>-0.3140719862638955</v>
+        <v>-0.7118938694614634</v>
       </c>
       <c r="M12" t="s" s="1449">
-        <v>93</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
@@ -10508,40 +10508,40 @@
         <v>72</v>
       </c>
       <c r="B15" t="n" s="1469">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C15" t="n" s="1470">
-        <v>0.10755108441075896</v>
+        <v>-0.013263282323476443</v>
       </c>
       <c r="D15" t="n" s="1471">
-        <v>-0.1547845308672261</v>
+        <v>-0.2755988976014615</v>
       </c>
       <c r="E15" t="n" s="1472">
-        <v>0.5038474385578107</v>
+        <v>0.3484089126346211</v>
       </c>
       <c r="F15" t="n" s="1473">
-        <v>0.15933054990844248</v>
+        <v>0.11613630421154036</v>
       </c>
       <c r="G15" t="n" s="1474">
-        <v>-0.211110015406126</v>
+        <v>-0.24553589074655718</v>
       </c>
       <c r="H15" t="n" s="1475">
-        <v>0.4262121842276439</v>
+        <v>0.21900932609960427</v>
       </c>
       <c r="I15" t="n" s="1476">
-        <v>12.890008338016326</v>
+        <v>10.001466146356538</v>
       </c>
       <c r="J15" t="n" s="1477">
-        <v>-0.6884745635570673</v>
+        <v>-1.4019164499507597</v>
       </c>
       <c r="K15" t="n" s="1478">
-        <v>0.5033572127961137</v>
+        <v>0.19120443431330159</v>
       </c>
       <c r="L15" t="n" s="1479">
-        <v>-0.3140719862638955</v>
+        <v>-0.7118938694614634</v>
       </c>
       <c r="M15" t="s" s="1480">
-        <v>93</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
@@ -10555,7 +10555,7 @@
         <v>0.26233561527798505</v>
       </c>
       <c r="D16" t="n" s="1471">
-        <v>0.1547845308672261</v>
+        <v>0.2755988976014615</v>
       </c>
       <c r="E16" t="n" s="1472">
         <v>0.3885272588041064</v>
@@ -10570,19 +10570,19 @@
         <v>0.5795667936887596</v>
       </c>
       <c r="I16" t="n" s="1476">
-        <v>12.890008338016326</v>
+        <v>10.001466146356538</v>
       </c>
       <c r="J16" t="n" s="1477">
-        <v>-0.6884745635570673</v>
+        <v>-1.4019164499507597</v>
       </c>
       <c r="K16" t="n" s="1478">
-        <v>0.5033572127961137</v>
+        <v>0.19120443431330159</v>
       </c>
       <c r="L16" t="n" s="1479">
-        <v>-0.3140719862638955</v>
+        <v>-0.7118938694614634</v>
       </c>
       <c r="M16" t="s" s="1480">
-        <v>93</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17">
@@ -11353,28 +11353,28 @@
     </row>
     <row r="103">
       <c r="A103" t="n" s="1511">
-        <v>10233.0</v>
+        <v>10237.0</v>
       </c>
       <c r="B103" t="n" s="1512">
-        <v>9805320.0</v>
+        <v>1.0377688E7</v>
       </c>
       <c r="C103" t="s" s="1513">
         <v>28</v>
       </c>
       <c r="D103" t="s" s="1514">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E103" t="s" s="1515">
         <v>29</v>
       </c>
       <c r="F103" t="s" s="1516">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G103" t="n" s="1517">
-        <v>1.1948803850188776</v>
+        <v>0.015219938416659686</v>
       </c>
       <c r="H103" t="n" s="1518">
-        <v>0.4968541841652655</v>
+        <v>0.49593237329953443</v>
       </c>
       <c r="I103" t="n" s="1519">
         <v>0.4912066501534773</v>
@@ -11382,16 +11382,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n" s="1511">
-        <v>10237.0</v>
+        <v>10238.0</v>
       </c>
       <c r="B104" t="n" s="1512">
-        <v>1.0377688E7</v>
+        <v>1.0276953E7</v>
       </c>
       <c r="C104" t="s" s="1513">
         <v>28</v>
       </c>
       <c r="D104" t="s" s="1514">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E104" t="s" s="1515">
         <v>29</v>
@@ -11400,41 +11400,12 @@
         <v>126</v>
       </c>
       <c r="G104" t="n" s="1517">
-        <v>0.015219938416659686</v>
+        <v>0.2753338747076326</v>
       </c>
       <c r="H104" t="n" s="1518">
-        <v>0.49593237329953443</v>
+        <v>0.4948560473068051</v>
       </c>
       <c r="I104" t="n" s="1519">
-        <v>0.4912066501534773</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n" s="1511">
-        <v>10238.0</v>
-      </c>
-      <c r="B105" t="n" s="1512">
-        <v>1.0276953E7</v>
-      </c>
-      <c r="C105" t="s" s="1513">
-        <v>28</v>
-      </c>
-      <c r="D105" t="s" s="1514">
-        <v>111</v>
-      </c>
-      <c r="E105" t="s" s="1515">
-        <v>29</v>
-      </c>
-      <c r="F105" t="s" s="1516">
-        <v>126</v>
-      </c>
-      <c r="G105" t="n" s="1517">
-        <v>0.2753338747076326</v>
-      </c>
-      <c r="H105" t="n" s="1518">
-        <v>0.4948560473068051</v>
-      </c>
-      <c r="I105" t="n" s="1519">
         <v>0.4912066501534773</v>
       </c>
     </row>
@@ -12336,28 +12307,28 @@
     </row>
     <row r="31">
       <c r="A31" t="n" s="1526">
-        <v>10233.0</v>
+        <v>10234.0</v>
       </c>
       <c r="B31" t="n" s="1527">
-        <v>9805320.0</v>
+        <v>1.0310676E7</v>
       </c>
       <c r="C31" t="s" s="1528">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s" s="1529">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s" s="1530">
         <v>29</v>
       </c>
       <c r="F31" t="s" s="1531">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G31" t="n" s="1532">
-        <v>1.1948803850188776</v>
+        <v>0.9731476351294435</v>
       </c>
       <c r="H31" t="n" s="1533">
-        <v>0.4968541841652655</v>
+        <v>0.4875192347138689</v>
       </c>
       <c r="I31" t="n" s="1534">
         <v>0.4912066501534773</v>
@@ -12365,28 +12336,28 @@
     </row>
     <row r="32">
       <c r="A32" t="n" s="1526">
-        <v>10234.0</v>
+        <v>10237.0</v>
       </c>
       <c r="B32" t="n" s="1527">
-        <v>1.0310676E7</v>
+        <v>1.0377688E7</v>
       </c>
       <c r="C32" t="s" s="1528">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s" s="1529">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s" s="1530">
         <v>29</v>
       </c>
       <c r="F32" t="s" s="1531">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G32" t="n" s="1532">
-        <v>0.9731476351294435</v>
+        <v>0.015219938416659686</v>
       </c>
       <c r="H32" t="n" s="1533">
-        <v>0.4875192347138689</v>
+        <v>0.49593237329953443</v>
       </c>
       <c r="I32" t="n" s="1534">
         <v>0.4912066501534773</v>
@@ -12394,16 +12365,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n" s="1526">
-        <v>10237.0</v>
+        <v>10238.0</v>
       </c>
       <c r="B33" t="n" s="1527">
-        <v>1.0377688E7</v>
+        <v>1.0276953E7</v>
       </c>
       <c r="C33" t="s" s="1528">
         <v>28</v>
       </c>
       <c r="D33" t="s" s="1529">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s" s="1530">
         <v>29</v>
@@ -12412,41 +12383,12 @@
         <v>126</v>
       </c>
       <c r="G33" t="n" s="1532">
-        <v>0.015219938416659686</v>
+        <v>0.2753338747076326</v>
       </c>
       <c r="H33" t="n" s="1533">
-        <v>0.49593237329953443</v>
+        <v>0.4948560473068051</v>
       </c>
       <c r="I33" t="n" s="1534">
-        <v>0.4912066501534773</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n" s="1526">
-        <v>10238.0</v>
-      </c>
-      <c r="B34" t="n" s="1527">
-        <v>1.0276953E7</v>
-      </c>
-      <c r="C34" t="s" s="1528">
-        <v>28</v>
-      </c>
-      <c r="D34" t="s" s="1529">
-        <v>111</v>
-      </c>
-      <c r="E34" t="s" s="1530">
-        <v>29</v>
-      </c>
-      <c r="F34" t="s" s="1531">
-        <v>126</v>
-      </c>
-      <c r="G34" t="n" s="1532">
-        <v>0.2753338747076326</v>
-      </c>
-      <c r="H34" t="n" s="1533">
-        <v>0.4948560473068051</v>
-      </c>
-      <c r="I34" t="n" s="1534">
         <v>0.4912066501534773</v>
       </c>
     </row>
@@ -12499,10 +12441,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="101">
-        <v>0.9405524257255234</v>
+        <v>0.9515633234135944</v>
       </c>
       <c r="B6" t="n" s="102">
-        <v>0.07049357380306871</v>
+        <v>0.1596175145475596</v>
       </c>
     </row>
     <row r="7">
@@ -12716,15 +12658,15 @@
         <v>3.0</v>
       </c>
       <c r="B47" t="n" s="134">
-        <v>1.2027638397174891</v>
+        <v>1.8126731609733195</v>
       </c>
       <c r="C47" t="n" s="135">
-        <v>0.3262389181114151</v>
+        <v>0.16775437745085658</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="133">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="B48" s="134"/>
       <c r="C48" s="135"/>
@@ -13614,7 +13556,7 @@
         <v>29</v>
       </c>
       <c r="C222" t="n" s="168">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="223">
@@ -13833,16 +13775,16 @@
         <v>47</v>
       </c>
       <c r="B6" t="n" s="225">
-        <v>0.33595385706106784</v>
+        <v>0.2673348502922077</v>
       </c>
       <c r="C6" t="n" s="226">
-        <v>-0.13737281590763012</v>
+        <v>-0.19747808229130193</v>
       </c>
       <c r="D6" t="n" s="227">
-        <v>0.8092805300297659</v>
+        <v>0.7321477828757174</v>
       </c>
       <c r="E6" t="n" s="228">
-        <v>0.1573333401761221</v>
+        <v>0.2486605448829442</v>
       </c>
     </row>
     <row r="7">
@@ -13880,16 +13822,16 @@
         <v>49</v>
       </c>
       <c r="B11" t="n" s="247">
-        <v>0.27449567405290454</v>
+        <v>0.33588672789626073</v>
       </c>
       <c r="C11" t="n" s="248">
-        <v>-0.22731251878848657</v>
+        <v>-0.15247576647870942</v>
       </c>
       <c r="D11" t="n" s="249">
-        <v>0.7763038668942956</v>
+        <v>0.8242492222712309</v>
       </c>
       <c r="E11" t="n" s="250">
-        <v>0.2724210647516897</v>
+        <v>0.16988653057251135</v>
       </c>
     </row>
     <row r="12">
@@ -13927,16 +13869,16 @@
         <v>51</v>
       </c>
       <c r="B16" t="n" s="269">
-        <v>0.397286848455514</v>
+        <v>0.2764724817212789</v>
       </c>
       <c r="C16" t="n" s="270">
-        <v>-0.3778089015803944</v>
+        <v>-0.494727486356648</v>
       </c>
       <c r="D16" t="n" s="271">
-        <v>1.1723825984914225</v>
+        <v>1.0476724497992058</v>
       </c>
       <c r="E16" t="n" s="272">
-        <v>0.5115828722228548</v>
+        <v>0.7624972744105963</v>
       </c>
     </row>
     <row r="17">
@@ -13944,16 +13886,16 @@
         <v>52</v>
       </c>
       <c r="B17" t="n" s="269">
-        <v>0.4058824475968298</v>
+        <v>0.4058824475968299</v>
       </c>
       <c r="C17" t="n" s="270">
-        <v>-0.557688004104142</v>
+        <v>-0.5250497876066503</v>
       </c>
       <c r="D17" t="n" s="271">
-        <v>1.3694528992978015</v>
+        <v>1.33681468280031</v>
       </c>
       <c r="E17" t="n" s="272">
-        <v>0.6636885273637327</v>
+        <v>0.6377963164801965</v>
       </c>
     </row>
     <row r="18">
@@ -13961,16 +13903,16 @@
         <v>53</v>
       </c>
       <c r="B18" t="n" s="269">
-        <v>0.5520713793227399</v>
+        <v>0.5520713793227404</v>
       </c>
       <c r="C18" t="n" s="270">
-        <v>-0.3530454552178176</v>
+        <v>-0.3223871892351792</v>
       </c>
       <c r="D18" t="n" s="271">
-        <v>1.4571882138632972</v>
+        <v>1.4265299478806601</v>
       </c>
       <c r="E18" t="n" s="272">
-        <v>0.36152077501898106</v>
+        <v>0.33079484861257713</v>
       </c>
     </row>
     <row r="19">
@@ -13978,16 +13920,16 @@
         <v>54</v>
       </c>
       <c r="B19" t="n" s="269">
-        <v>0.00859559914131583</v>
+        <v>0.129409965875551</v>
       </c>
       <c r="C19" t="n" s="270">
-        <v>-0.9829102157697531</v>
+        <v>-0.8460894063546073</v>
       </c>
       <c r="D19" t="n" s="271">
-        <v>1.0001014140523847</v>
+        <v>1.1049093381057093</v>
       </c>
       <c r="E19" t="n" s="272">
-        <v>0.9999951471993901</v>
+        <v>0.9834018446581936</v>
       </c>
     </row>
     <row r="20">
@@ -13995,16 +13937,16 @@
         <v>55</v>
       </c>
       <c r="B20" t="n" s="269">
-        <v>0.15478453086722585</v>
+        <v>0.2755988976014615</v>
       </c>
       <c r="C20" t="n" s="270">
-        <v>-0.7800161162121216</v>
+        <v>-0.6461613677630479</v>
       </c>
       <c r="D20" t="n" s="271">
-        <v>1.0895851779465733</v>
+        <v>1.197359162965971</v>
       </c>
       <c r="E20" t="n" s="272">
-        <v>0.9688795080420365</v>
+        <v>0.8462358900860951</v>
       </c>
     </row>
     <row r="21">
@@ -14012,16 +13954,16 @@
         <v>56</v>
       </c>
       <c r="B21" t="n" s="269">
-        <v>0.14618893172591002</v>
+        <v>0.1461889317259105</v>
       </c>
       <c r="C21" t="n" s="270">
-        <v>-0.949961990112618</v>
+        <v>-0.9128329861692778</v>
       </c>
       <c r="D21" t="n" s="271">
-        <v>1.2423398535644379</v>
+        <v>1.2052108496210987</v>
       </c>
       <c r="E21" t="n" s="272">
-        <v>0.9832604651344801</v>
+        <v>0.9813816787144786</v>
       </c>
     </row>
     <row r="22">
@@ -14064,19 +14006,19 @@
         <v>63</v>
       </c>
       <c r="B26" t="n" s="292">
-        <v>-0.27173789009071214</v>
+        <v>-0.21133070672359472</v>
       </c>
       <c r="C26" t="n" s="293">
-        <v>0.2463756206189707</v>
+        <v>0.23991171837978945</v>
       </c>
       <c r="D26" t="n" s="294">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="E26" t="n" s="295">
-        <v>-1.1029414737059766</v>
+        <v>-0.8808686301394003</v>
       </c>
       <c r="F26" t="n" s="296">
-        <v>0.2791215466135196</v>
+        <v>0.3858877187223224</v>
       </c>
     </row>
     <row r="27">
@@ -14125,19 +14067,19 @@
         <v>29</v>
       </c>
       <c r="C31" t="n" s="317">
-        <v>-0.3972868484555141</v>
+        <v>-0.2764724817212789</v>
       </c>
       <c r="D31" t="n" s="318">
-        <v>0.28449006177224767</v>
+        <v>0.2824585935874614</v>
       </c>
       <c r="E31" t="n" s="319">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="F31" t="n" s="320">
-        <v>-1.396487617108985</v>
+        <v>-0.978807117212637</v>
       </c>
       <c r="G31" t="n" s="321">
-        <v>0.17316538642183732</v>
+        <v>0.3360571834163967</v>
       </c>
     </row>
     <row r="32">
@@ -14148,19 +14090,19 @@
         <v>30</v>
       </c>
       <c r="C32" t="n" s="317">
-        <v>-0.1461889317259102</v>
+        <v>-0.14618893172591052</v>
       </c>
       <c r="D32" t="n" s="318">
-        <v>0.4023297037186722</v>
+        <v>0.3878758478848186</v>
       </c>
       <c r="E32" t="n" s="319">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="F32" t="n" s="320">
-        <v>-0.3633560494656699</v>
+        <v>-0.3768961963553914</v>
       </c>
       <c r="G32" t="n" s="321">
-        <v>0.7189743136576005</v>
+        <v>0.7090921100486571</v>
       </c>
     </row>
     <row r="33">
@@ -14206,19 +14148,19 @@
         <v>27</v>
       </c>
       <c r="B37" t="n" s="341">
-        <v>-0.08679454024634035</v>
+        <v>-0.08679454024634044</v>
       </c>
       <c r="C37" t="n" s="342">
-        <v>0.17683377654542842</v>
+        <v>0.17048095225947724</v>
       </c>
       <c r="D37" t="n" s="343">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="E37" t="n" s="344">
-        <v>-0.44846022176732137</v>
+        <v>-0.4360089403947077</v>
       </c>
       <c r="F37" t="n" s="345">
-        <v>0.27487114127464063</v>
+        <v>0.2624198599020269</v>
       </c>
       <c r="G37" t="s" s="346">
         <v>27</v>
@@ -14229,19 +14171,19 @@
         <v>28</v>
       </c>
       <c r="B38" t="n" s="341">
-        <v>0.18494334984437177</v>
+        <v>0.12453616647725428</v>
       </c>
       <c r="C38" t="n" s="342">
-        <v>0.1715539620879229</v>
+        <v>0.1688012960040451</v>
       </c>
       <c r="D38" t="n" s="343">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="E38" t="n" s="344">
-        <v>-0.16592389864315815</v>
+        <v>-0.22123761380172474</v>
       </c>
       <c r="F38" t="n" s="345">
-        <v>0.5358105983319017</v>
+        <v>0.47030994675623333</v>
       </c>
       <c r="G38" t="s" s="346">
         <v>28</v>
@@ -14296,19 +14238,19 @@
         <v>29</v>
       </c>
       <c r="C43" t="n" s="367">
-        <v>-0.28973576404475526</v>
+        <v>-0.28973576404475543</v>
       </c>
       <c r="D43" t="n" s="368">
-        <v>0.19180316051900867</v>
+        <v>0.18491255511504426</v>
       </c>
       <c r="E43" t="n" s="369">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="F43" t="n" s="370">
-        <v>-0.6820172733929688</v>
+        <v>-0.6685119625500189</v>
       </c>
       <c r="G43" t="n" s="371">
-        <v>0.10254574530345834</v>
+        <v>0.08904043446050802</v>
       </c>
       <c r="H43" t="s" s="372">
         <v>71</v>
@@ -14322,19 +14264,19 @@
         <v>29</v>
       </c>
       <c r="C44" t="n" s="367">
-        <v>0.10755108441075885</v>
+        <v>-0.0132632823234765</v>
       </c>
       <c r="D44" t="n" s="368">
-        <v>0.21010983523409063</v>
+        <v>0.21351862694442467</v>
       </c>
       <c r="E44" t="n" s="369">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="F44" t="n" s="370">
-        <v>-0.3221717787136216</v>
+        <v>-0.45063636266275053</v>
       </c>
       <c r="G44" t="n" s="371">
-        <v>0.5372739475351394</v>
+        <v>0.4241097980157975</v>
       </c>
       <c r="H44" t="s" s="372">
         <v>72</v>
@@ -14351,16 +14293,16 @@
         <v>0.11614668355207454</v>
       </c>
       <c r="D45" t="n" s="368">
-        <v>0.29714017857602737</v>
+        <v>0.2864652985860911</v>
       </c>
       <c r="E45" t="n" s="369">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="F45" t="n" s="370">
-        <v>-0.4915732175402215</v>
+        <v>-0.4706508799481816</v>
       </c>
       <c r="G45" t="n" s="371">
-        <v>0.7238665846443706</v>
+        <v>0.7029442470523307</v>
       </c>
       <c r="H45" t="s" s="372">
         <v>73</v>
@@ -14374,19 +14316,19 @@
         <v>30</v>
       </c>
       <c r="C46" t="n" s="367">
-        <v>0.2623356152779847</v>
+        <v>0.26233561527798505</v>
       </c>
       <c r="D46" t="n" s="368">
-        <v>0.27125063091200585</v>
+        <v>0.2615058432967581</v>
       </c>
       <c r="E46" t="n" s="369">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="F46" t="n" s="370">
-        <v>-0.29243421551044707</v>
+        <v>-0.27333482175228224</v>
       </c>
       <c r="G46" t="n" s="371">
-        <v>0.8171054460664164</v>
+        <v>0.7980060523082524</v>
       </c>
       <c r="H46" t="s" s="372">
         <v>74</v>
@@ -15111,7 +15053,7 @@
         <v>-0.1703585735750996</v>
       </c>
       <c r="D7" t="n" s="473">
-        <v>-0.33595385706106834</v>
+        <v>-0.2673348502922077</v>
       </c>
       <c r="E7" t="n" s="474">
         <v>0.8040635616521623</v>
@@ -15126,16 +15068,16 @@
         <v>0.2196695434133949</v>
       </c>
       <c r="I7" t="n" s="478">
-        <v>25.637615882010866</v>
+        <v>23.34178879397099</v>
       </c>
       <c r="J7" t="n" s="479">
-        <v>-1.4866156830912278</v>
+        <v>-1.2259580882293466</v>
       </c>
       <c r="K7" t="n" s="480">
-        <v>0.07465598421125365</v>
+        <v>0.11621988210143953</v>
       </c>
       <c r="L7" t="n" s="481">
-        <v>-0.4971572607880417</v>
+        <v>-0.4062620083502202</v>
       </c>
       <c r="M7" t="s" s="482">
         <v>93</v>
@@ -15146,37 +15088,37 @@
         <v>28</v>
       </c>
       <c r="B8" t="n" s="471">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C8" t="n" s="472">
-        <v>0.16559528348596875</v>
+        <v>0.09697627671710815</v>
       </c>
       <c r="D8" t="n" s="473">
-        <v>0.33595385706106834</v>
+        <v>0.2673348502922077</v>
       </c>
       <c r="E8" t="n" s="474">
-        <v>0.4567545487804706</v>
+        <v>0.3778996867922931</v>
       </c>
       <c r="F8" t="n" s="475">
-        <v>0.11418863719511765</v>
+        <v>0.09757327956556999</v>
       </c>
       <c r="G8" t="n" s="476">
-        <v>-0.06278199090426656</v>
+        <v>-0.09817028241403183</v>
       </c>
       <c r="H8" t="n" s="477">
-        <v>0.39397255787620405</v>
+        <v>0.29212283584824816</v>
       </c>
       <c r="I8" t="n" s="478">
-        <v>25.637615882010866</v>
+        <v>23.34178879397099</v>
       </c>
       <c r="J8" t="n" s="479">
-        <v>-1.4866156830912278</v>
+        <v>-1.2259580882293466</v>
       </c>
       <c r="K8" t="n" s="480">
-        <v>0.07465598421125365</v>
+        <v>0.11621988210143953</v>
       </c>
       <c r="L8" t="n" s="481">
-        <v>-0.4971572607880417</v>
+        <v>-0.4062620083502202</v>
       </c>
       <c r="M8" t="s" s="482">
         <v>93</v>
@@ -15239,7 +15181,7 @@
         <v>-0.1703585735750996</v>
       </c>
       <c r="D11" t="n" s="504">
-        <v>-0.33595385706106834</v>
+        <v>-0.2673348502922077</v>
       </c>
       <c r="E11" t="n" s="505">
         <v>0.8040635616521623</v>
@@ -15254,16 +15196,16 @@
         <v>0.2196695434133949</v>
       </c>
       <c r="I11" t="n" s="509">
-        <v>25.637615882010866</v>
+        <v>23.34178879397099</v>
       </c>
       <c r="J11" t="n" s="510">
-        <v>-1.4866156830912278</v>
+        <v>-1.2259580882293466</v>
       </c>
       <c r="K11" t="n" s="511">
-        <v>0.9253440157887464</v>
+        <v>0.8837801178985605</v>
       </c>
       <c r="L11" t="n" s="512">
-        <v>-0.4971572607880417</v>
+        <v>-0.4062620083502202</v>
       </c>
       <c r="M11" t="s" s="513">
         <v>93</v>
@@ -15274,37 +15216,37 @@
         <v>28</v>
       </c>
       <c r="B12" t="n" s="502">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C12" t="n" s="503">
-        <v>0.16559528348596875</v>
+        <v>0.09697627671710815</v>
       </c>
       <c r="D12" t="n" s="504">
-        <v>0.33595385706106834</v>
+        <v>0.2673348502922077</v>
       </c>
       <c r="E12" t="n" s="505">
-        <v>0.4567545487804706</v>
+        <v>0.3778996867922931</v>
       </c>
       <c r="F12" t="n" s="506">
-        <v>0.11418863719511765</v>
+        <v>0.09757327956556999</v>
       </c>
       <c r="G12" t="n" s="507">
-        <v>-0.06278199090426656</v>
+        <v>-0.09817028241403183</v>
       </c>
       <c r="H12" t="n" s="508">
-        <v>0.39397255787620405</v>
+        <v>0.29212283584824816</v>
       </c>
       <c r="I12" t="n" s="509">
-        <v>25.637615882010866</v>
+        <v>23.34178879397099</v>
       </c>
       <c r="J12" t="n" s="510">
-        <v>-1.4866156830912278</v>
+        <v>-1.2259580882293466</v>
       </c>
       <c r="K12" t="n" s="511">
-        <v>0.9253440157887464</v>
+        <v>0.8837801178985605</v>
       </c>
       <c r="L12" t="n" s="512">
-        <v>-0.4971572607880417</v>
+        <v>-0.4062620083502202</v>
       </c>
       <c r="M12" t="s" s="513">
         <v>93</v>
@@ -15367,7 +15309,7 @@
         <v>-0.1703585735750996</v>
       </c>
       <c r="D15" t="n" s="535">
-        <v>-0.33595385706106834</v>
+        <v>-0.2673348502922077</v>
       </c>
       <c r="E15" t="n" s="536">
         <v>0.8040635616521623</v>
@@ -15382,16 +15324,16 @@
         <v>0.2196695434133949</v>
       </c>
       <c r="I15" t="n" s="540">
-        <v>25.637615882010866</v>
+        <v>23.34178879397099</v>
       </c>
       <c r="J15" t="n" s="541">
-        <v>-1.4866156830912278</v>
+        <v>-1.2259580882293466</v>
       </c>
       <c r="K15" t="n" s="542">
-        <v>0.1493119684225073</v>
+        <v>0.23243976420287907</v>
       </c>
       <c r="L15" t="n" s="543">
-        <v>-0.4971572607880417</v>
+        <v>-0.4062620083502202</v>
       </c>
       <c r="M15" t="s" s="544">
         <v>93</v>
@@ -15402,37 +15344,37 @@
         <v>28</v>
       </c>
       <c r="B16" t="n" s="533">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C16" t="n" s="534">
-        <v>0.16559528348596875</v>
+        <v>0.09697627671710815</v>
       </c>
       <c r="D16" t="n" s="535">
-        <v>0.33595385706106834</v>
+        <v>0.2673348502922077</v>
       </c>
       <c r="E16" t="n" s="536">
-        <v>0.4567545487804706</v>
+        <v>0.3778996867922931</v>
       </c>
       <c r="F16" t="n" s="537">
-        <v>0.11418863719511765</v>
+        <v>0.09757327956556999</v>
       </c>
       <c r="G16" t="n" s="538">
-        <v>-0.06278199090426656</v>
+        <v>-0.09817028241403183</v>
       </c>
       <c r="H16" t="n" s="539">
-        <v>0.39397255787620405</v>
+        <v>0.29212283584824816</v>
       </c>
       <c r="I16" t="n" s="540">
-        <v>25.637615882010866</v>
+        <v>23.34178879397099</v>
       </c>
       <c r="J16" t="n" s="541">
-        <v>-1.4866156830912278</v>
+        <v>-1.2259580882293466</v>
       </c>
       <c r="K16" t="n" s="542">
-        <v>0.1493119684225073</v>
+        <v>0.23243976420287907</v>
       </c>
       <c r="L16" t="n" s="543">
-        <v>-0.4971572607880417</v>
+        <v>-0.4062620083502202</v>
       </c>
       <c r="M16" t="s" s="544">
         <v>93</v>
@@ -16670,28 +16612,28 @@
     </row>
     <row r="119">
       <c r="A119" t="n" s="575">
-        <v>10233.0</v>
+        <v>10234.0</v>
       </c>
       <c r="B119" t="n" s="576">
-        <v>9805320.0</v>
+        <v>1.0310676E7</v>
       </c>
       <c r="C119" t="s" s="577">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D119" t="s" s="578">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E119" t="s" s="579">
         <v>29</v>
       </c>
       <c r="F119" t="s" s="580">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G119" t="n" s="581">
-        <v>1.1948803850188776</v>
+        <v>0.9731476351294435</v>
       </c>
       <c r="H119" t="n" s="582">
-        <v>0.4968541841652655</v>
+        <v>0.4875192347138689</v>
       </c>
       <c r="I119" t="n" s="583">
         <v>0.4912066501534773</v>
@@ -16699,28 +16641,28 @@
     </row>
     <row r="120">
       <c r="A120" t="n" s="575">
-        <v>10234.0</v>
+        <v>10237.0</v>
       </c>
       <c r="B120" t="n" s="576">
-        <v>1.0310676E7</v>
+        <v>1.0377688E7</v>
       </c>
       <c r="C120" t="s" s="577">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" t="s" s="578">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E120" t="s" s="579">
         <v>29</v>
       </c>
       <c r="F120" t="s" s="580">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G120" t="n" s="581">
-        <v>0.9731476351294435</v>
+        <v>0.015219938416659686</v>
       </c>
       <c r="H120" t="n" s="582">
-        <v>0.4875192347138689</v>
+        <v>0.49593237329953443</v>
       </c>
       <c r="I120" t="n" s="583">
         <v>0.4912066501534773</v>
@@ -16728,16 +16670,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n" s="575">
-        <v>10237.0</v>
+        <v>10238.0</v>
       </c>
       <c r="B121" t="n" s="576">
-        <v>1.0377688E7</v>
+        <v>1.0276953E7</v>
       </c>
       <c r="C121" t="s" s="577">
         <v>28</v>
       </c>
       <c r="D121" t="s" s="578">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E121" t="s" s="579">
         <v>29</v>
@@ -16746,41 +16688,12 @@
         <v>126</v>
       </c>
       <c r="G121" t="n" s="581">
-        <v>0.015219938416659686</v>
+        <v>0.2753338747076326</v>
       </c>
       <c r="H121" t="n" s="582">
-        <v>0.49593237329953443</v>
+        <v>0.4948560473068051</v>
       </c>
       <c r="I121" t="n" s="583">
-        <v>0.4912066501534773</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n" s="575">
-        <v>10238.0</v>
-      </c>
-      <c r="B122" t="n" s="576">
-        <v>1.0276953E7</v>
-      </c>
-      <c r="C122" t="s" s="577">
-        <v>28</v>
-      </c>
-      <c r="D122" t="s" s="578">
-        <v>111</v>
-      </c>
-      <c r="E122" t="s" s="579">
-        <v>29</v>
-      </c>
-      <c r="F122" t="s" s="580">
-        <v>126</v>
-      </c>
-      <c r="G122" t="n" s="581">
-        <v>0.2753338747076326</v>
-      </c>
-      <c r="H122" t="n" s="582">
-        <v>0.4948560473068051</v>
-      </c>
-      <c r="I122" t="n" s="583">
         <v>0.4912066501534773</v>
       </c>
     </row>
@@ -18207,7 +18120,7 @@
         <v>-0.28973576404475554</v>
       </c>
       <c r="D7" t="n" s="785">
-        <v>-0.3972868484555145</v>
+        <v>-0.2764724817212791</v>
       </c>
       <c r="E7" t="n" s="786">
         <v>0.7332912183150396</v>
@@ -18222,19 +18135,19 @@
         <v>0.13363011824382126</v>
       </c>
       <c r="I7" t="n" s="790">
-        <v>19.38849662228208</v>
+        <v>16.556090377783672</v>
       </c>
       <c r="J7" t="n" s="791">
-        <v>-1.4995064598138104</v>
+        <v>-1.1450584548812122</v>
       </c>
       <c r="K7" t="n" s="792">
-        <v>0.07492495575698208</v>
+        <v>0.13423436720464998</v>
       </c>
       <c r="L7" t="n" s="793">
-        <v>-0.5969093654919981</v>
+        <v>-0.4408764163035044</v>
       </c>
       <c r="M7" t="s" s="794">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -18242,40 +18155,40 @@
         <v>72</v>
       </c>
       <c r="B8" t="n" s="783">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C8" t="n" s="784">
-        <v>0.10755108441075896</v>
+        <v>-0.013263282323476443</v>
       </c>
       <c r="D8" t="n" s="785">
-        <v>0.3972868484555145</v>
+        <v>0.2764724817212791</v>
       </c>
       <c r="E8" t="n" s="786">
-        <v>0.5038474385578107</v>
+        <v>0.3484089126346211</v>
       </c>
       <c r="F8" t="n" s="787">
-        <v>0.15933054990844248</v>
+        <v>0.11613630421154036</v>
       </c>
       <c r="G8" t="n" s="788">
-        <v>-0.211110015406126</v>
+        <v>-0.24553589074655718</v>
       </c>
       <c r="H8" t="n" s="789">
-        <v>0.4262121842276439</v>
+        <v>0.21900932609960427</v>
       </c>
       <c r="I8" t="n" s="790">
-        <v>19.38849662228208</v>
+        <v>16.556090377783672</v>
       </c>
       <c r="J8" t="n" s="791">
-        <v>-1.4995064598138104</v>
+        <v>-1.1450584548812122</v>
       </c>
       <c r="K8" t="n" s="792">
-        <v>0.07492495575698208</v>
+        <v>0.13423436720464998</v>
       </c>
       <c r="L8" t="n" s="793">
-        <v>-0.5969093654919981</v>
+        <v>-0.4408764163035044</v>
       </c>
       <c r="M8" t="s" s="794">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -18335,7 +18248,7 @@
         <v>-0.28973576404475554</v>
       </c>
       <c r="D11" t="n" s="816">
-        <v>-0.3972868484555145</v>
+        <v>-0.2764724817212791</v>
       </c>
       <c r="E11" t="n" s="817">
         <v>0.7332912183150396</v>
@@ -18350,19 +18263,19 @@
         <v>0.13363011824382126</v>
       </c>
       <c r="I11" t="n" s="821">
-        <v>19.38849662228208</v>
+        <v>16.556090377783672</v>
       </c>
       <c r="J11" t="n" s="822">
-        <v>-1.4995064598138104</v>
+        <v>-1.1450584548812122</v>
       </c>
       <c r="K11" t="n" s="823">
-        <v>0.9250750442430179</v>
+        <v>0.86576563279535</v>
       </c>
       <c r="L11" t="n" s="824">
-        <v>-0.5969093654919981</v>
+        <v>-0.4408764163035044</v>
       </c>
       <c r="M11" t="s" s="825">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
@@ -18370,40 +18283,40 @@
         <v>72</v>
       </c>
       <c r="B12" t="n" s="814">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C12" t="n" s="815">
-        <v>0.10755108441075896</v>
+        <v>-0.013263282323476443</v>
       </c>
       <c r="D12" t="n" s="816">
-        <v>0.3972868484555145</v>
+        <v>0.2764724817212791</v>
       </c>
       <c r="E12" t="n" s="817">
-        <v>0.5038474385578107</v>
+        <v>0.3484089126346211</v>
       </c>
       <c r="F12" t="n" s="818">
-        <v>0.15933054990844248</v>
+        <v>0.11613630421154036</v>
       </c>
       <c r="G12" t="n" s="819">
-        <v>-0.211110015406126</v>
+        <v>-0.24553589074655718</v>
       </c>
       <c r="H12" t="n" s="820">
-        <v>0.4262121842276439</v>
+        <v>0.21900932609960427</v>
       </c>
       <c r="I12" t="n" s="821">
-        <v>19.38849662228208</v>
+        <v>16.556090377783672</v>
       </c>
       <c r="J12" t="n" s="822">
-        <v>-1.4995064598138104</v>
+        <v>-1.1450584548812122</v>
       </c>
       <c r="K12" t="n" s="823">
-        <v>0.9250750442430179</v>
+        <v>0.86576563279535</v>
       </c>
       <c r="L12" t="n" s="824">
-        <v>-0.5969093654919981</v>
+        <v>-0.4408764163035044</v>
       </c>
       <c r="M12" t="s" s="825">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
@@ -18463,7 +18376,7 @@
         <v>-0.28973576404475554</v>
       </c>
       <c r="D15" t="n" s="847">
-        <v>-0.3972868484555145</v>
+        <v>-0.2764724817212791</v>
       </c>
       <c r="E15" t="n" s="848">
         <v>0.7332912183150396</v>
@@ -18478,19 +18391,19 @@
         <v>0.13363011824382126</v>
       </c>
       <c r="I15" t="n" s="852">
-        <v>19.38849662228208</v>
+        <v>16.556090377783672</v>
       </c>
       <c r="J15" t="n" s="853">
-        <v>-1.4995064598138104</v>
+        <v>-1.1450584548812122</v>
       </c>
       <c r="K15" t="n" s="854">
-        <v>0.14984991151396415</v>
+        <v>0.26846873440929997</v>
       </c>
       <c r="L15" t="n" s="855">
-        <v>-0.5969093654919981</v>
+        <v>-0.4408764163035044</v>
       </c>
       <c r="M15" t="s" s="856">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
@@ -18498,40 +18411,40 @@
         <v>72</v>
       </c>
       <c r="B16" t="n" s="845">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C16" t="n" s="846">
-        <v>0.10755108441075896</v>
+        <v>-0.013263282323476443</v>
       </c>
       <c r="D16" t="n" s="847">
-        <v>0.3972868484555145</v>
+        <v>0.2764724817212791</v>
       </c>
       <c r="E16" t="n" s="848">
-        <v>0.5038474385578107</v>
+        <v>0.3484089126346211</v>
       </c>
       <c r="F16" t="n" s="849">
-        <v>0.15933054990844248</v>
+        <v>0.11613630421154036</v>
       </c>
       <c r="G16" t="n" s="850">
-        <v>-0.211110015406126</v>
+        <v>-0.24553589074655718</v>
       </c>
       <c r="H16" t="n" s="851">
-        <v>0.4262121842276439</v>
+        <v>0.21900932609960427</v>
       </c>
       <c r="I16" t="n" s="852">
-        <v>19.38849662228208</v>
+        <v>16.556090377783672</v>
       </c>
       <c r="J16" t="n" s="853">
-        <v>-1.4995064598138104</v>
+        <v>-1.1450584548812122</v>
       </c>
       <c r="K16" t="n" s="854">
-        <v>0.14984991151396415</v>
+        <v>0.26846873440929997</v>
       </c>
       <c r="L16" t="n" s="855">
-        <v>-0.5969093654919981</v>
+        <v>-0.4408764163035044</v>
       </c>
       <c r="M16" t="s" s="856">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
@@ -19447,28 +19360,28 @@
     </row>
     <row r="108">
       <c r="A108" t="n" s="887">
-        <v>10233.0</v>
+        <v>10234.0</v>
       </c>
       <c r="B108" t="n" s="888">
-        <v>9805320.0</v>
+        <v>1.0310676E7</v>
       </c>
       <c r="C108" t="s" s="889">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D108" t="s" s="890">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E108" t="s" s="891">
         <v>29</v>
       </c>
       <c r="F108" t="s" s="892">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G108" t="n" s="893">
-        <v>1.1948803850188776</v>
+        <v>0.9731476351294435</v>
       </c>
       <c r="H108" t="n" s="894">
-        <v>0.4968541841652655</v>
+        <v>0.4875192347138689</v>
       </c>
       <c r="I108" t="n" s="895">
         <v>0.4912066501534773</v>
@@ -19476,28 +19389,28 @@
     </row>
     <row r="109">
       <c r="A109" t="n" s="887">
-        <v>10234.0</v>
+        <v>10237.0</v>
       </c>
       <c r="B109" t="n" s="888">
-        <v>1.0310676E7</v>
+        <v>1.0377688E7</v>
       </c>
       <c r="C109" t="s" s="889">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" t="s" s="890">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E109" t="s" s="891">
         <v>29</v>
       </c>
       <c r="F109" t="s" s="892">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G109" t="n" s="893">
-        <v>0.9731476351294435</v>
+        <v>0.015219938416659686</v>
       </c>
       <c r="H109" t="n" s="894">
-        <v>0.4875192347138689</v>
+        <v>0.49593237329953443</v>
       </c>
       <c r="I109" t="n" s="895">
         <v>0.4912066501534773</v>
@@ -19505,16 +19418,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n" s="887">
-        <v>10237.0</v>
+        <v>10238.0</v>
       </c>
       <c r="B110" t="n" s="888">
-        <v>1.0377688E7</v>
+        <v>1.0276953E7</v>
       </c>
       <c r="C110" t="s" s="889">
         <v>28</v>
       </c>
       <c r="D110" t="s" s="890">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E110" t="s" s="891">
         <v>29</v>
@@ -19523,41 +19436,12 @@
         <v>126</v>
       </c>
       <c r="G110" t="n" s="893">
-        <v>0.015219938416659686</v>
+        <v>0.2753338747076326</v>
       </c>
       <c r="H110" t="n" s="894">
-        <v>0.49593237329953443</v>
+        <v>0.4948560473068051</v>
       </c>
       <c r="I110" t="n" s="895">
-        <v>0.4912066501534773</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n" s="887">
-        <v>10238.0</v>
-      </c>
-      <c r="B111" t="n" s="888">
-        <v>1.0276953E7</v>
-      </c>
-      <c r="C111" t="s" s="889">
-        <v>28</v>
-      </c>
-      <c r="D111" t="s" s="890">
-        <v>111</v>
-      </c>
-      <c r="E111" t="s" s="891">
-        <v>29</v>
-      </c>
-      <c r="F111" t="s" s="892">
-        <v>126</v>
-      </c>
-      <c r="G111" t="n" s="893">
-        <v>0.2753338747076326</v>
-      </c>
-      <c r="H111" t="n" s="894">
-        <v>0.4948560473068051</v>
-      </c>
-      <c r="I111" t="n" s="895">
         <v>0.4912066501534773</v>
       </c>
     </row>
@@ -19593,7 +19477,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="897">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
@@ -20938,7 +20822,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1053">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2">
@@ -21013,7 +20897,7 @@
         <v>0.1161466835520746</v>
       </c>
       <c r="D7" t="n" s="1097">
-        <v>0.008595599141315635</v>
+        <v>0.12940996587555104</v>
       </c>
       <c r="E7" t="n" s="1098">
         <v>0.9808131810301569</v>
@@ -21028,19 +20912,19 @@
         <v>0.9934126619565697</v>
       </c>
       <c r="I7" t="n" s="1102">
-        <v>5.085852559234116</v>
+        <v>4.569249856873666</v>
       </c>
       <c r="J7" t="n" s="1103">
-        <v>0.01841883038917742</v>
+        <v>0.2852027735860136</v>
       </c>
       <c r="K7" t="n" s="1104">
-        <v>0.5069972334849594</v>
+        <v>0.6060206534586079</v>
       </c>
       <c r="L7" t="n" s="1105">
-        <v>0.011778545936609893</v>
+        <v>0.19117483725903867</v>
       </c>
       <c r="M7" t="s" s="1106">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
@@ -21048,40 +20932,40 @@
         <v>72</v>
       </c>
       <c r="B8" t="n" s="1095">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C8" t="n" s="1096">
-        <v>0.10755108441075896</v>
+        <v>-0.013263282323476443</v>
       </c>
       <c r="D8" t="n" s="1097">
-        <v>-0.008595599141315635</v>
+        <v>-0.12940996587555104</v>
       </c>
       <c r="E8" t="n" s="1098">
-        <v>0.5038474385578107</v>
+        <v>0.3484089126346211</v>
       </c>
       <c r="F8" t="n" s="1099">
-        <v>0.15933054990844248</v>
+        <v>0.11613630421154036</v>
       </c>
       <c r="G8" t="n" s="1100">
-        <v>-0.211110015406126</v>
+        <v>-0.24553589074655718</v>
       </c>
       <c r="H8" t="n" s="1101">
-        <v>0.4262121842276439</v>
+        <v>0.21900932609960427</v>
       </c>
       <c r="I8" t="n" s="1102">
-        <v>5.085852559234116</v>
+        <v>4.569249856873666</v>
       </c>
       <c r="J8" t="n" s="1103">
-        <v>0.01841883038917742</v>
+        <v>0.2852027735860136</v>
       </c>
       <c r="K8" t="n" s="1104">
-        <v>0.5069972334849594</v>
+        <v>0.6060206534586079</v>
       </c>
       <c r="L8" t="n" s="1105">
-        <v>0.011778545936609893</v>
+        <v>0.19117483725903867</v>
       </c>
       <c r="M8" t="s" s="1106">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9">
@@ -21141,7 +21025,7 @@
         <v>0.1161466835520746</v>
       </c>
       <c r="D11" t="n" s="1128">
-        <v>0.008595599141315635</v>
+        <v>0.12940996587555104</v>
       </c>
       <c r="E11" t="n" s="1129">
         <v>0.9808131810301569</v>
@@ -21156,19 +21040,19 @@
         <v>0.9934126619565697</v>
       </c>
       <c r="I11" t="n" s="1133">
-        <v>5.085852559234116</v>
+        <v>4.569249856873666</v>
       </c>
       <c r="J11" t="n" s="1134">
-        <v>0.01841883038917742</v>
+        <v>0.2852027735860136</v>
       </c>
       <c r="K11" t="n" s="1135">
-        <v>0.4930027665150406</v>
+        <v>0.39397934654139205</v>
       </c>
       <c r="L11" t="n" s="1136">
-        <v>0.011778545936609893</v>
+        <v>0.19117483725903867</v>
       </c>
       <c r="M11" t="s" s="1137">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -21176,40 +21060,40 @@
         <v>72</v>
       </c>
       <c r="B12" t="n" s="1126">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C12" t="n" s="1127">
-        <v>0.10755108441075896</v>
+        <v>-0.013263282323476443</v>
       </c>
       <c r="D12" t="n" s="1128">
-        <v>-0.008595599141315635</v>
+        <v>-0.12940996587555104</v>
       </c>
       <c r="E12" t="n" s="1129">
-        <v>0.5038474385578107</v>
+        <v>0.3484089126346211</v>
       </c>
       <c r="F12" t="n" s="1130">
-        <v>0.15933054990844248</v>
+        <v>0.11613630421154036</v>
       </c>
       <c r="G12" t="n" s="1131">
-        <v>-0.211110015406126</v>
+        <v>-0.24553589074655718</v>
       </c>
       <c r="H12" t="n" s="1132">
-        <v>0.4262121842276439</v>
+        <v>0.21900932609960427</v>
       </c>
       <c r="I12" t="n" s="1133">
-        <v>5.085852559234116</v>
+        <v>4.569249856873666</v>
       </c>
       <c r="J12" t="n" s="1134">
-        <v>0.01841883038917742</v>
+        <v>0.2852027735860136</v>
       </c>
       <c r="K12" t="n" s="1135">
-        <v>0.4930027665150406</v>
+        <v>0.39397934654139205</v>
       </c>
       <c r="L12" t="n" s="1136">
-        <v>0.011778545936609893</v>
+        <v>0.19117483725903867</v>
       </c>
       <c r="M12" t="s" s="1137">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -21269,7 +21153,7 @@
         <v>0.1161466835520746</v>
       </c>
       <c r="D15" t="n" s="1159">
-        <v>0.008595599141315635</v>
+        <v>0.12940996587555104</v>
       </c>
       <c r="E15" t="n" s="1160">
         <v>0.9808131810301569</v>
@@ -21284,19 +21168,19 @@
         <v>0.9934126619565697</v>
       </c>
       <c r="I15" t="n" s="1164">
-        <v>5.085852559234116</v>
+        <v>4.569249856873666</v>
       </c>
       <c r="J15" t="n" s="1165">
-        <v>0.01841883038917742</v>
+        <v>0.2852027735860136</v>
       </c>
       <c r="K15" t="n" s="1166">
-        <v>0.9860055330300812</v>
+        <v>0.7879586930827841</v>
       </c>
       <c r="L15" t="n" s="1167">
-        <v>0.011778545936609893</v>
+        <v>0.19117483725903867</v>
       </c>
       <c r="M15" t="s" s="1168">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
@@ -21304,40 +21188,40 @@
         <v>72</v>
       </c>
       <c r="B16" t="n" s="1157">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C16" t="n" s="1158">
-        <v>0.10755108441075896</v>
+        <v>-0.013263282323476443</v>
       </c>
       <c r="D16" t="n" s="1159">
-        <v>-0.008595599141315635</v>
+        <v>-0.12940996587555104</v>
       </c>
       <c r="E16" t="n" s="1160">
-        <v>0.5038474385578107</v>
+        <v>0.3484089126346211</v>
       </c>
       <c r="F16" t="n" s="1161">
-        <v>0.15933054990844248</v>
+        <v>0.11613630421154036</v>
       </c>
       <c r="G16" t="n" s="1162">
-        <v>-0.211110015406126</v>
+        <v>-0.24553589074655718</v>
       </c>
       <c r="H16" t="n" s="1163">
-        <v>0.4262121842276439</v>
+        <v>0.21900932609960427</v>
       </c>
       <c r="I16" t="n" s="1164">
-        <v>5.085852559234116</v>
+        <v>4.569249856873666</v>
       </c>
       <c r="J16" t="n" s="1165">
-        <v>0.01841883038917742</v>
+        <v>0.2852027735860136</v>
       </c>
       <c r="K16" t="n" s="1166">
-        <v>0.9860055330300812</v>
+        <v>0.7879586930827841</v>
       </c>
       <c r="L16" t="n" s="1167">
-        <v>0.011778545936609893</v>
+        <v>0.19117483725903867</v>
       </c>
       <c r="M16" t="s" s="1168">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
@@ -22079,28 +21963,28 @@
     </row>
     <row r="102">
       <c r="A102" t="n" s="1199">
-        <v>10233.0</v>
+        <v>10237.0</v>
       </c>
       <c r="B102" t="n" s="1200">
-        <v>9805320.0</v>
+        <v>1.0377688E7</v>
       </c>
       <c r="C102" t="s" s="1201">
         <v>28</v>
       </c>
       <c r="D102" t="s" s="1202">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E102" t="s" s="1203">
         <v>29</v>
       </c>
       <c r="F102" t="s" s="1204">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G102" t="n" s="1205">
-        <v>1.1948803850188776</v>
+        <v>0.015219938416659686</v>
       </c>
       <c r="H102" t="n" s="1206">
-        <v>0.4968541841652655</v>
+        <v>0.49593237329953443</v>
       </c>
       <c r="I102" t="n" s="1207">
         <v>0.4912066501534773</v>
@@ -22108,16 +21992,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n" s="1199">
-        <v>10237.0</v>
+        <v>10238.0</v>
       </c>
       <c r="B103" t="n" s="1200">
-        <v>1.0377688E7</v>
+        <v>1.0276953E7</v>
       </c>
       <c r="C103" t="s" s="1201">
         <v>28</v>
       </c>
       <c r="D103" t="s" s="1202">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E103" t="s" s="1203">
         <v>29</v>
@@ -22126,41 +22010,12 @@
         <v>126</v>
       </c>
       <c r="G103" t="n" s="1205">
-        <v>0.015219938416659686</v>
+        <v>0.2753338747076326</v>
       </c>
       <c r="H103" t="n" s="1206">
-        <v>0.49593237329953443</v>
+        <v>0.4948560473068051</v>
       </c>
       <c r="I103" t="n" s="1207">
-        <v>0.4912066501534773</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n" s="1199">
-        <v>10238.0</v>
-      </c>
-      <c r="B104" t="n" s="1200">
-        <v>1.0276953E7</v>
-      </c>
-      <c r="C104" t="s" s="1201">
-        <v>28</v>
-      </c>
-      <c r="D104" t="s" s="1202">
-        <v>111</v>
-      </c>
-      <c r="E104" t="s" s="1203">
-        <v>29</v>
-      </c>
-      <c r="F104" t="s" s="1204">
-        <v>126</v>
-      </c>
-      <c r="G104" t="n" s="1205">
-        <v>0.2753338747076326</v>
-      </c>
-      <c r="H104" t="n" s="1206">
-        <v>0.4948560473068051</v>
-      </c>
-      <c r="I104" t="n" s="1207">
         <v>0.4912066501534773</v>
       </c>
     </row>
